--- a/src/main/resources/195-iclyj-cloud/icly-auth_structure.xlsx
+++ b/src/main/resources/195-iclyj-cloud/icly-auth_structure.xlsx
@@ -106,7 +106,7 @@
     <t>com.lyj.auth.handler.AuthenticationFailureEvenHandler</t>
   </si>
   <si>
-    <t>handle(org.springframework.security.core.AuthenticationException)</t>
+    <t>handle(org.springframework.security.core.AuthenticationException,org.springframework.security.core.Authentication)</t>
   </si>
   <si>
     <t>onApplicationEvent(org.springframework.security.authentication.event.AbstractAuthenticationFailureEvent)</t>
@@ -136,7 +136,7 @@
     <t>com.lyj.auth.config.AuthServerConfig$1</t>
   </si>
   <si>
-    <t>enhance(org.springframework.security.oauth2.common.OAuth2AccessToken)</t>
+    <t>enhance(org.springframework.security.oauth2.common.OAuth2AccessToken,org.springframework.security.oauth2.provider.OAuth2Authentication)</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.common.OAuth2AccessToken</t>
